--- a/public/import/outlet_template (10).xlsx
+++ b/public/import/outlet_template (10).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WANDA FITRIANA PUTRI\SAM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{974F746F-3B03-4333-A5F8-234F2473CECC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6154F302-DB07-46BF-B6E4-E33EC1CDAE99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -81,22 +81,22 @@
     <t>MAINTAIN</t>
   </si>
   <si>
-    <t>CILACAP</t>
-  </si>
-  <si>
-    <t>BIGPURWOKERTO</t>
-  </si>
-  <si>
-    <t>PWT1</t>
-  </si>
-  <si>
-    <t>BT07966</t>
-  </si>
-  <si>
-    <t>AMANAH CELL</t>
-  </si>
-  <si>
-    <t>JL RAYA ADIPALA MAOS CILACAP</t>
+    <t>BIGTASIK</t>
+  </si>
+  <si>
+    <t>TSK1</t>
+  </si>
+  <si>
+    <t>008.213</t>
+  </si>
+  <si>
+    <t>BDKR CELL</t>
+  </si>
+  <si>
+    <t>Jl. Raya Leles No. 23 Garut</t>
+  </si>
+  <si>
+    <t>GARUT</t>
   </si>
 </sst>
 </file>
@@ -446,14 +446,14 @@
   <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12.08984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.26953125" customWidth="1"/>
     <col min="4" max="4" width="6.36328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.81640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="42.7265625" bestFit="1" customWidth="1"/>
@@ -511,22 +511,22 @@
         <v>13</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" t="s">
         <v>18</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>19</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="H2" t="s">
-        <v>15</v>
       </c>
       <c r="I2" t="s">
         <v>14</v>
